--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,22 +444,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Period</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Usage (%)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Duration</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Net Price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
         </is>
       </c>
     </row>
@@ -469,20 +484,29 @@
           <t>John</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -492,20 +516,29 @@
           <t>Jane</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -520,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,22 +569,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Period</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Usage (%)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Duration</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Net Price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
         </is>
       </c>
     </row>
@@ -563,22 +611,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -588,20 +641,29 @@
           <t>Jane</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>100</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -616,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,22 +694,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Period</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Usage (%)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Duration</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Net Price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
         </is>
       </c>
     </row>
@@ -657,20 +734,29 @@
           <t>John</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>100</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41.25000000000001</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -680,20 +766,35 @@
           <t>Jane</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -708,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,22 +825,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Period</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Usage (%)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Duration</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Net Price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
         </is>
       </c>
     </row>
@@ -749,20 +865,29 @@
           <t>John</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -772,20 +897,29 @@
           <t>Jane</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>ok</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,16 @@
           <t>Month</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Period</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,7 +480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
@@ -485,6 +495,12 @@
           <t>July</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +524,8 @@
           <t>July</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -561,15 +579,11 @@
           <t>John</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>500</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -773,24 +773,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="G3" t="n">
-        <v>54</v>
+        <v>43.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
